--- a/support/validation_models.xlsx
+++ b/support/validation_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\RS_CF_LastFm\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109E6633-5B93-4257-9EEF-2F10CC17C2EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0401D923-06A1-4E6B-9A2D-8C51235079E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,15 +33,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="33">
-  <si>
-    <t>Índice de Jaccard</t>
-  </si>
-  <si>
-    <t>Distancias Coseno</t>
-  </si>
-  <si>
-    <t>Correlación de Pearson</t>
-  </si>
   <si>
     <t>MAD</t>
   </si>
@@ -131,6 +122,15 @@
   </si>
   <si>
     <t>Note: MAD is Average Absolute Difference metric.</t>
+  </si>
+  <si>
+    <t>Jaccard Index</t>
+  </si>
+  <si>
+    <t>Cosine Similarity</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
   </si>
 </sst>
 </file>
@@ -482,16 +482,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-419" sz="1400" b="1">
-                <a:latin typeface="+mj-lt"/>
-              </a:rPr>
-              <a:t>CF UB</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="es-419" sz="1400" b="1" baseline="0">
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
-              <a:t> - Dimensión Training/Testing</a:t>
+              <a:t>User-Based - Dimensión Training/Testing</a:t>
             </a:r>
             <a:endParaRPr lang="es-419" sz="1400">
               <a:latin typeface="+mj-lt"/>
@@ -530,7 +524,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15295345067160723"/>
+          <c:y val="0.19102143340590944"/>
+          <c:w val="0.81469360815192216"/>
+          <c:h val="0.50368199740704978"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -543,7 +547,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Índice de Jaccard</c:v>
+                  <c:v>Jaccard Index</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -617,7 +621,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Distancias Coseno</c:v>
+                  <c:v>Cosine Similarity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -691,7 +695,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Correlación de Pearson</c:v>
+                  <c:v>Pearson Correlation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -775,6 +779,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Train Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -841,7 +900,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MAD</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -980,14 +1094,23 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-419" b="1"/>
-              <a:t>CF UB - Dimensión KNN</a:t>
+              <a:rPr lang="es-419" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>User-Based </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419" b="1">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>- Dimensión k-NN</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1012,7 +1135,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -1023,7 +1146,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15253294299365527"/>
+          <c:y val="0.1901035707554575"/>
+          <c:w val="0.81520306223879324"/>
+          <c:h val="0.51119228451749787"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1036,7 +1169,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Índice de Jaccard</c:v>
+                  <c:v>Jaccard Index</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1110,7 +1243,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Distancias Coseno</c:v>
+                  <c:v>Cosine Similarity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1184,7 +1317,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Correlación de Pearson</c:v>
+                  <c:v>Pearson Correlation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1268,6 +1401,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1333,7 +1521,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MAD</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1472,7 +1715,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1480,13 +1723,13 @@
             <a:r>
               <a:rPr lang="es-419" sz="1400" b="1" i="0" baseline="0">
                 <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="+mj-lt"/>
               </a:rPr>
-              <a:t>CF IB - Dimensión Training/Testing</a:t>
+              <a:t>Item-Based - Dimensión Training/Testing</a:t>
             </a:r>
             <a:endParaRPr lang="es-419" sz="1400">
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -1511,7 +1754,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -1522,7 +1765,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15183700212655898"/>
+          <c:y val="0.190123827525399"/>
+          <c:w val="0.81604620955227314"/>
+          <c:h val="0.50088817259245899"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1535,7 +1788,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Índice de Jaccard</c:v>
+                  <c:v>Jaccard Index</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1609,7 +1862,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Distancias Coseno</c:v>
+                  <c:v>Cosine Similarity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1683,7 +1936,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Correlación de Pearson</c:v>
+                  <c:v>Pearson Correlation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1767,6 +2020,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Train Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1833,7 +2141,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MAD</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1972,14 +2335,23 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-419" b="1"/>
-              <a:t>CF IB - Dimensión KNN</a:t>
+              <a:rPr lang="es-419" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Item-Based </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419" b="1">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>- Dimensión KNN</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2004,7 +2376,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -2015,7 +2387,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15183700212655898"/>
+          <c:y val="0.17803195514155462"/>
+          <c:w val="0.81604620955227314"/>
+          <c:h val="0.52783167802666386"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2028,7 +2410,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Índice de Jaccard</c:v>
+                  <c:v>Jaccard Index</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2081,7 +2463,7 @@
                   <c:v>0.19704890053841698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15230391994453532</c:v>
+                  <c:v>0.20307189325938044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2102,7 +2484,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Distancias Coseno</c:v>
+                  <c:v>Cosine Similarity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2155,7 +2537,7 @@
                   <c:v>0.24429953172221763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17683301084609457</c:v>
+                  <c:v>0.23577734779479276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2176,7 +2558,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Correlación de Pearson</c:v>
+                  <c:v>Pearson Correlation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2229,7 +2611,7 @@
                   <c:v>0.33295901468373001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24297033376535943</c:v>
+                  <c:v>0.32396044502047922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,6 +2642,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2325,7 +2762,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MAD</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4777,8 +5269,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>275167</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
@@ -4786,7 +5278,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>179917</xdr:rowOff>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5107,7 +5599,7 @@
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B2" s="36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -5138,25 +5630,25 @@
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
       <c r="G4" s="36" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
       <c r="L4" s="36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
       <c r="O4" s="36"/>
       <c r="Q4" s="36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R4" s="36"/>
       <c r="S4" s="36"/>
@@ -5172,27 +5664,27 @@
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="34"/>
       <c r="G6" s="32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="34"/>
       <c r="K6" s="20"/>
       <c r="L6" s="32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
       <c r="O6" s="34"/>
       <c r="W6" s="15"/>
       <c r="X6" s="35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y6" s="35"/>
       <c r="Z6" s="35"/>
@@ -5200,48 +5692,48 @@
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="X7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="AA7" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -5249,7 +5741,7 @@
         <v>0.26872778222898402</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -5257,7 +5749,7 @@
         <v>0.292464315521825</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -5265,7 +5757,7 @@
         <v>0.28524531913013002</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X8" s="25">
         <f>(E8+E15+E22+E29)/3</f>
@@ -5286,7 +5778,7 @@
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -5294,7 +5786,7 @@
         <v>0.47337837703034902</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -5302,7 +5794,7 @@
         <v>0.47575494528393403</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -5310,7 +5802,7 @@
         <v>0.44023208779519302</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="X9" s="3">
         <f>(E9+E16+E23+E30)/3</f>
@@ -5331,7 +5823,7 @@
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -5339,7 +5831,7 @@
         <v>0.44582416461568303</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -5347,7 +5839,7 @@
         <v>0.38770750241395802</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -5355,7 +5847,7 @@
         <v>0.38400041742997199</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="X10" s="6">
         <f>(E10+E17+E24+E31)/3</f>
@@ -5391,7 +5883,7 @@
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="W12" s="15"/>
       <c r="X12" s="35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y12" s="35"/>
       <c r="Z12" s="35"/>
@@ -5400,71 +5892,71 @@
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="34"/>
       <c r="F13" s="20"/>
       <c r="G13" s="32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
       <c r="J13" s="34"/>
       <c r="K13" s="20"/>
       <c r="L13" s="32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
       <c r="O13" s="34"/>
       <c r="W13" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Y13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA13" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="AB13" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W14" s="15" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X14" s="25">
         <f>(E8 + J8 + O8)/3</f>
@@ -5489,7 +5981,7 @@
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -5497,7 +5989,7 @@
         <v>0.263289665317326</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -5505,7 +5997,7 @@
         <v>0.240698836995524</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -5513,7 +6005,7 @@
         <v>0.20225797512072899</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="X15" s="3">
         <f>(E9 + J9 + O9)/3</f>
@@ -5538,7 +6030,7 @@
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -5546,7 +6038,7 @@
         <v>0.37728649177989099</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -5554,7 +6046,7 @@
         <v>0.36156193003929898</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -5562,7 +6054,7 @@
         <v>0.34628940619556198</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="X16" s="6">
         <f>(E10 + J10 + O10)/3</f>
@@ -5587,7 +6079,7 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -5595,7 +6087,7 @@
         <v>0.28630768949119501</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -5603,7 +6095,7 @@
         <v>0.31748807619846697</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -5627,19 +6119,19 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
       <c r="G20" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="34"/>
       <c r="L20" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
@@ -5647,33 +6139,33 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -5681,7 +6173,7 @@
         <v>0.225185724590238</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -5689,7 +6181,7 @@
         <v>0.240429483586201</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -5699,7 +6191,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -5707,7 +6199,7 @@
         <v>0.33291662001428601</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -5715,7 +6207,7 @@
         <v>0.31048072235957203</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -5725,7 +6217,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -5733,7 +6225,7 @@
         <v>0.26985516012696298</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -5741,7 +6233,7 @@
         <v>0.257334538622498</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -5765,19 +6257,19 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="34"/>
       <c r="G27" s="32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="34"/>
       <c r="L27" s="32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
@@ -5785,33 +6277,33 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -5819,7 +6311,7 @@
         <v>0.239064205508142</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -5827,7 +6319,7 @@
         <v>0.20625671987049701</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -5837,7 +6329,7 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -5845,7 +6337,7 @@
         <v>0.29789956109841398</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -5853,7 +6345,7 @@
         <v>0.27827370612630897</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -5863,7 +6355,7 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -5871,7 +6363,7 @@
         <v>0.27042483560699099</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -5879,7 +6371,7 @@
         <v>0.28399368472320002</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
@@ -5903,7 +6395,7 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L34" s="31"/>
     </row>
@@ -5966,7 +6458,7 @@
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" s="37" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -5996,25 +6488,25 @@
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
       <c r="G4" s="37" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
       <c r="L4" s="37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" s="37"/>
       <c r="N4" s="37"/>
       <c r="O4" s="37"/>
       <c r="Q4" s="37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R4" s="37"/>
       <c r="S4" s="37"/>
@@ -6029,27 +6521,27 @@
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="34"/>
       <c r="G6" s="32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="34"/>
       <c r="K6" s="20"/>
       <c r="L6" s="32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
       <c r="O6" s="34"/>
       <c r="W6" s="15"/>
       <c r="X6" s="35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y6" s="35"/>
       <c r="Z6" s="35"/>
@@ -6057,48 +6549,48 @@
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
       <c r="J7" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
       <c r="O7" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="X7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y7" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="24" t="s">
-        <v>13</v>
-      </c>
       <c r="AA7" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -6106,7 +6598,7 @@
         <v>0.22802928905543601</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -6114,7 +6606,7 @@
         <v>0.22194094128450301</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -6122,7 +6614,7 @@
         <v>0.20437629375719699</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X8" s="3">
         <f>(E8+E15+E22)/3</f>
@@ -6143,7 +6635,7 @@
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -6151,7 +6643,7 @@
         <v>0.25257742620575502</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -6159,7 +6651,7 @@
         <v>0.23342025852487</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -6167,7 +6659,7 @@
         <v>0.22063721357421401</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="X9" s="3">
         <f>(E9+E16+E23)/3</f>
@@ -6188,7 +6680,7 @@
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -6196,7 +6688,7 @@
         <v>0.33022044223657698</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -6204,7 +6696,7 @@
         <v>0.28846874699825897</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -6212,7 +6704,7 @@
         <v>0.28917006179314603</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="X10" s="6">
         <f>(E10+E17+E24)/3</f>
@@ -6248,7 +6740,7 @@
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="W12" s="15"/>
       <c r="X12" s="35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y12" s="35"/>
       <c r="Z12" s="35"/>
@@ -6256,67 +6748,67 @@
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="34"/>
       <c r="G13" s="32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
       <c r="J13" s="34"/>
       <c r="K13" s="20"/>
       <c r="L13" s="32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
       <c r="O13" s="34"/>
       <c r="W13" s="23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X13" s="24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y13" s="24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z13" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA13" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W14" s="15" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X14" s="25">
         <f>(E8 + J8 + O8)/3</f>
@@ -6331,13 +6823,13 @@
         <v>0.19704890053841698</v>
       </c>
       <c r="AA14" s="26">
-        <f>(X14+Y14+Z14)/4</f>
-        <v>0.15230391994453532</v>
+        <f>(X14+Y14+Z14)/3</f>
+        <v>0.20307189325938044</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -6345,7 +6837,7 @@
         <v>0.19577364339751199</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -6353,7 +6845,7 @@
         <v>0.186783894349137</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -6361,7 +6853,7 @@
         <v>0.199596275875388</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="X15" s="3">
         <f>(E9 + J9 + O9)/3</f>
@@ -6376,13 +6868,13 @@
         <v>0.24429953172221763</v>
       </c>
       <c r="AA15" s="4">
-        <f>(X15+Y15+Z15)/4</f>
-        <v>0.17683301084609457</v>
+        <f>(X15+Y15+Z15)/3</f>
+        <v>0.23577734779479276</v>
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -6390,7 +6882,7 @@
         <v>0.212590365634241</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -6398,7 +6890,7 @@
         <v>0.240327399046669</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -6406,7 +6898,7 @@
         <v>0.22954487200073301</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="X16" s="6">
         <f>(E10 + J10 + O10)/3</f>
@@ -6421,13 +6913,13 @@
         <v>0.33295901468373001</v>
       </c>
       <c r="AA16" s="7">
-        <f>(X16+Y16+Z16)/4</f>
-        <v>0.24297033376535943</v>
+        <f>(X16+Y16+Z16)/3</f>
+        <v>0.32396044502047922</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -6435,7 +6927,7 @@
         <v>0.40793802489444497</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -6443,7 +6935,7 @@
         <v>0.32080449374673897</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -6467,21 +6959,21 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
       <c r="F20" s="20"/>
       <c r="G20" s="32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="34"/>
       <c r="K20" s="20"/>
       <c r="L20" s="32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
@@ -6489,33 +6981,33 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
       <c r="O21" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -6523,7 +7015,7 @@
         <v>0.20388347100412499</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -6531,7 +7023,7 @@
         <v>0.19176543734691601</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -6541,7 +7033,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -6549,7 +7041,7 @@
         <v>0.27074361191712698</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -6557,7 +7049,7 @@
         <v>0.24018016660379299</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -6567,7 +7059,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -6575,7 +7067,7 @@
         <v>0.38762034910012499</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -6583,7 +7075,7 @@
         <v>0.31501335095190203</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -6607,7 +7099,7 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/support/validation_models.xlsx
+++ b/support/validation_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\RS_CF_LastFm\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0401D923-06A1-4E6B-9A2D-8C51235079E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3FF059-58FC-4FD2-8FB5-2AAADD14B14A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6407,11 +6407,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L27:O27"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="X12:Z12"/>
     <mergeCell ref="Q4:AB4"/>
@@ -6426,6 +6421,11 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7104,12 +7104,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="L6:O6"/>
     <mergeCell ref="X12:Z12"/>
     <mergeCell ref="Q4:AA4"/>
     <mergeCell ref="B2:AA2"/>
@@ -7120,6 +7114,12 @@
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="L4:O4"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="L6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
